--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc103_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc103_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3520" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -419,10 +431,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -466,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="2">
+      <c r="C12" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -512,28 +524,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="2">
+      <c r="I14" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -650,10 +662,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="2" t="s">
+      <c r="J18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -697,28 +709,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="2">
+      <c r="A20" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s" s="2">
+      <c r="C20" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -743,28 +755,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="2">
+      <c r="I22" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -910,10 +922,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="2" t="s">
+      <c r="J27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -957,28 +969,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="2">
+      <c r="A29" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s" s="2">
+      <c r="C29" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1003,28 +1015,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="2">
+      <c r="D31" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="2">
+      <c r="I31" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1170,10 +1182,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1217,28 +1229,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="2">
+      <c r="C38" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1263,28 +1275,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1488,10 +1500,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="2" t="s">
+      <c r="J47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1535,28 +1547,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="2">
+      <c r="A49" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s" s="2">
+      <c r="C49" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1581,28 +1593,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="2">
+      <c r="I51" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1806,10 +1818,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="2" t="s">
+      <c r="J58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1853,28 +1865,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="2">
+      <c r="A60" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s" s="2">
+      <c r="C60" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1899,28 +1911,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="2">
+      <c r="C62" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="2">
+      <c r="D62" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="2">
+      <c r="I62" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2066,10 +2078,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="2" t="s">
+      <c r="J67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2113,28 +2125,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="2">
+      <c r="A69" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s" s="2">
+      <c r="C69" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2159,28 +2171,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="2">
+      <c r="I71" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2297,10 +2309,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K75" s="2" t="s">
+      <c r="J75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2344,28 +2356,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="2">
+      <c r="A77" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s" s="2">
+      <c r="C77" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2390,28 +2402,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="2">
+      <c r="C79" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="2">
+      <c r="D79" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="2">
+      <c r="I79" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2557,10 +2569,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="2" t="s">
+      <c r="J84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2604,28 +2616,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
+      <c r="A86" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="2">
+      <c r="C86" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2650,28 +2662,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="2">
+      <c r="I88" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2788,10 +2800,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="2" t="s">
+      <c r="J92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2835,28 +2847,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="2">
+      <c r="A94" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="2">
+      <c r="C94" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2881,28 +2893,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="2">
+      <c r="I96" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3048,10 +3060,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K101" s="2" t="s">
+      <c r="J101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K101" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3095,28 +3107,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="2">
+      <c r="A103" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D103" t="s" s="2">
+      <c r="C103" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3141,28 +3153,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="2">
+      <c r="C105" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="2">
+      <c r="D105" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="2">
+      <c r="I105" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3221,10 +3233,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K107" s="2" t="s">
+      <c r="J107" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3268,28 +3280,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="2">
+      <c r="A109" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s" s="2">
+      <c r="C109" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3314,28 +3326,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="2">
+      <c r="C111" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="2">
+      <c r="D111" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="2">
+      <c r="I111" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3452,10 +3464,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="2" t="s">
+      <c r="J115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3499,28 +3511,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="2">
+      <c r="A117" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="2">
+      <c r="C117" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3545,28 +3557,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="2">
+      <c r="I119" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3683,10 +3695,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K123" s="2" t="s">
+      <c r="J123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K123" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3730,28 +3742,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="2">
+      <c r="A125" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D125" t="s" s="2">
+      <c r="C125" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3776,28 +3788,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="2">
+      <c r="I127" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3943,10 +3955,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K132" s="2" t="s">
+      <c r="J132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -3990,28 +4002,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="2">
+      <c r="A134" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s" s="2">
+      <c r="C134" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4036,28 +4048,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="2">
+      <c r="C136" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="2">
+      <c r="D136" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="2">
+      <c r="I136" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4174,10 +4186,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="2" t="s">
+      <c r="J140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4221,28 +4233,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="2">
+      <c r="C142" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4267,28 +4279,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4463,10 +4475,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="2" t="s">
+      <c r="J150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4510,28 +4522,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="2">
+      <c r="C152" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4556,28 +4568,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4636,10 +4648,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="2" t="s">
+      <c r="J156" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4683,28 +4695,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="2">
+      <c r="C158" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4729,28 +4741,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4809,10 +4821,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4856,28 +4868,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4902,28 +4914,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5011,10 +5023,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="2" t="s">
+      <c r="J169" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5058,28 +5070,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="2">
+      <c r="C171" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5104,28 +5116,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5242,10 +5254,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="2" t="s">
+      <c r="J177" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5289,28 +5301,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="2">
+      <c r="A179" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="2">
+      <c r="C179" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5335,28 +5347,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="2">
+      <c r="I181" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5415,10 +5427,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="2" t="s">
+      <c r="J183" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5462,28 +5474,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="2">
+      <c r="A185" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="2">
+      <c r="C185" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5508,28 +5520,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="2">
+      <c r="C187" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="2">
+      <c r="D187" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="2">
+      <c r="I187" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5588,10 +5600,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="2" t="s">
+      <c r="J189" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5635,28 +5647,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="2">
+      <c r="A191" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="2">
+      <c r="C191" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5681,28 +5693,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="2">
+      <c r="C193" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="2">
+      <c r="D193" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="2">
+      <c r="I193" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5790,10 +5802,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="2" t="s">
+      <c r="J196" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
@@ -5837,28 +5849,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="2">
+      <c r="A198" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C198" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D198" t="s" s="2">
+      <c r="C198" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5883,28 +5895,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C200" t="s" s="2">
+      <c r="C200" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D200" t="s" s="2">
+      <c r="D200" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I200" t="s" s="2">
+      <c r="I200" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5963,10 +5975,10 @@
       <c r="I202">
         <f>((C202-C201)^2+(D202- D201)^2)^.5</f>
       </c>
-      <c r="J202" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K202" s="2" t="s">
+      <c r="J202" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L202" t="n">
@@ -6010,28 +6022,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="2">
+      <c r="A204" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C204" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s" s="2">
+      <c r="C204" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6056,28 +6068,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C206" t="s" s="2">
+      <c r="C206" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D206" t="s" s="2">
+      <c r="D206" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I206" t="s" s="2">
+      <c r="I206" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6136,10 +6148,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="2" t="s">
+      <c r="J208" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6183,28 +6195,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="2">
+      <c r="A210" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="2">
+      <c r="C210" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6229,28 +6241,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="2">
+      <c r="C212" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="2">
+      <c r="D212" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="2">
+      <c r="I212" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6309,10 +6321,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="2" t="s">
+      <c r="J214" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6356,28 +6368,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="2">
+      <c r="A216" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="2">
+      <c r="C216" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6402,28 +6414,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="2">
+      <c r="C218" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="2">
+      <c r="D218" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="2">
+      <c r="I218" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6482,10 +6494,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="2" t="s">
+      <c r="J220" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6529,28 +6541,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="2">
+      <c r="A222" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="2">
+      <c r="C222" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6575,28 +6587,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="2">
+      <c r="C224" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="2">
+      <c r="D224" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="2">
+      <c r="I224" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6655,10 +6667,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="2" t="s">
+      <c r="J226" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6702,28 +6714,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="2">
+      <c r="A228" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="2">
+      <c r="C228" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6748,28 +6760,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="2">
+      <c r="C230" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="2">
+      <c r="D230" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="2">
+      <c r="I230" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6828,10 +6840,10 @@
       <c r="I232">
         <f>((C232-C231)^2+(D232- D231)^2)^.5</f>
       </c>
-      <c r="J232" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="2" t="s">
+      <c r="J232" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L232" t="n">
@@ -6875,28 +6887,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="2">
+      <c r="A234" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C234" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s" s="2">
+      <c r="C234" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6921,28 +6933,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C236" t="s" s="2">
+      <c r="C236" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D236" t="s" s="2">
+      <c r="D236" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I236" t="s" s="2">
+      <c r="I236" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7001,10 +7013,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="2" t="s">
+      <c r="J238" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7048,28 +7060,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="2">
+      <c r="A240" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="2">
+      <c r="C240" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7094,28 +7106,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="2">
+      <c r="C242" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="2">
+      <c r="D242" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="2">
+      <c r="I242" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7174,10 +7186,10 @@
       <c r="I244">
         <f>((C244-C243)^2+(D244- D243)^2)^.5</f>
       </c>
-      <c r="J244" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K244" s="2" t="s">
+      <c r="J244" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K244" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L244" t="n">
@@ -7221,28 +7233,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="2">
+      <c r="A246" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C246" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D246" t="s" s="2">
+      <c r="C246" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7267,28 +7279,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C248" t="s" s="2">
+      <c r="C248" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D248" t="s" s="2">
+      <c r="D248" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I248" t="s" s="2">
+      <c r="I248" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7347,10 +7359,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="2" t="s">
+      <c r="J250" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7394,28 +7406,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="2">
+      <c r="A252" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="2">
+      <c r="C252" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7440,28 +7452,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="2">
+      <c r="C254" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="2">
+      <c r="D254" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="2">
+      <c r="I254" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7520,10 +7532,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="2" t="s">
+      <c r="J256" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
@@ -7567,28 +7579,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="s" s="2">
+      <c r="A258" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B258" t="s" s="2">
+      <c r="B258" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C258" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D258" t="s" s="2">
+      <c r="C258" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D258" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E258" t="s" s="2">
+      <c r="E258" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F258" t="s" s="2">
+      <c r="F258" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G258" t="s" s="2">
+      <c r="G258" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H258" t="s" s="2">
+      <c r="H258" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7613,28 +7625,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="B260" t="s" s="2">
+      <c r="B260" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C260" t="s" s="2">
+      <c r="C260" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D260" t="s" s="2">
+      <c r="D260" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E260" t="s" s="2">
+      <c r="E260" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F260" t="s" s="2">
+      <c r="F260" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G260" t="s" s="2">
+      <c r="G260" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H260" t="s" s="2">
+      <c r="H260" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I260" t="s" s="2">
+      <c r="I260" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7693,10 +7705,10 @@
       <c r="I262">
         <f>((C262-C261)^2+(D262- D261)^2)^.5</f>
       </c>
-      <c r="J262" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K262" s="2" t="s">
+      <c r="J262" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K262" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L262" t="n">
@@ -7740,28 +7752,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="s" s="2">
+      <c r="A264" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C264" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D264" t="s" s="2">
+      <c r="C264" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D264" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7786,28 +7798,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C266" t="s" s="2">
+      <c r="C266" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D266" t="s" s="2">
+      <c r="D266" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I266" t="s" s="2">
+      <c r="I266" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7866,10 +7878,10 @@
       <c r="I268">
         <f>((C268-C267)^2+(D268- D267)^2)^.5</f>
       </c>
-      <c r="J268" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K268" s="2" t="s">
+      <c r="J268" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K268" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L268" t="n">
@@ -7913,28 +7925,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="2">
+      <c r="A270" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B270" t="s" s="2">
+      <c r="B270" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C270" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D270" t="s" s="2">
+      <c r="C270" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E270" t="s" s="2">
+      <c r="E270" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F270" t="s" s="2">
+      <c r="F270" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G270" t="s" s="2">
+      <c r="G270" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H270" t="s" s="2">
+      <c r="H270" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7959,28 +7971,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="B272" t="s" s="2">
+      <c r="B272" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C272" t="s" s="2">
+      <c r="C272" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D272" t="s" s="2">
+      <c r="D272" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E272" t="s" s="2">
+      <c r="E272" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F272" t="s" s="2">
+      <c r="F272" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G272" t="s" s="2">
+      <c r="G272" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H272" t="s" s="2">
+      <c r="H272" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I272" t="s" s="2">
+      <c r="I272" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8039,10 +8051,10 @@
       <c r="I274">
         <f>((C274-C273)^2+(D274- D273)^2)^.5</f>
       </c>
-      <c r="J274" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K274" s="2" t="s">
+      <c r="J274" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K274" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L274" t="n">
@@ -8086,28 +8098,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="s" s="2">
+      <c r="A276" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B276" t="s" s="2">
+      <c r="B276" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C276" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D276" t="s" s="2">
+      <c r="C276" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D276" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E276" t="s" s="2">
+      <c r="E276" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F276" t="s" s="2">
+      <c r="F276" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G276" t="s" s="2">
+      <c r="G276" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H276" t="s" s="2">
+      <c r="H276" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8132,28 +8144,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="B278" t="s" s="2">
+      <c r="B278" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C278" t="s" s="2">
+      <c r="C278" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D278" t="s" s="2">
+      <c r="D278" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E278" t="s" s="2">
+      <c r="E278" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F278" t="s" s="2">
+      <c r="F278" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G278" t="s" s="2">
+      <c r="G278" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H278" t="s" s="2">
+      <c r="H278" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I278" t="s" s="2">
+      <c r="I278" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8212,10 +8224,10 @@
       <c r="I280">
         <f>((C280-C279)^2+(D280- D279)^2)^.5</f>
       </c>
-      <c r="J280" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K280" s="2" t="s">
+      <c r="J280" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K280" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L280" t="n">
@@ -8259,28 +8271,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="s" s="2">
+      <c r="A282" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B282" t="s" s="2">
+      <c r="B282" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C282" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D282" t="s" s="2">
+      <c r="C282" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D282" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E282" t="s" s="2">
+      <c r="E282" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F282" t="s" s="2">
+      <c r="F282" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G282" t="s" s="2">
+      <c r="G282" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H282" t="s" s="2">
+      <c r="H282" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8305,28 +8317,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="B284" t="s" s="2">
+      <c r="B284" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C284" t="s" s="2">
+      <c r="C284" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D284" t="s" s="2">
+      <c r="D284" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E284" t="s" s="2">
+      <c r="E284" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F284" t="s" s="2">
+      <c r="F284" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G284" t="s" s="2">
+      <c r="G284" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H284" t="s" s="2">
+      <c r="H284" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I284" t="s" s="2">
+      <c r="I284" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8385,10 +8397,10 @@
       <c r="I286">
         <f>((C286-C285)^2+(D286- D285)^2)^.5</f>
       </c>
-      <c r="J286" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K286" s="2" t="s">
+      <c r="J286" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K286" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L286" t="n">
@@ -8432,28 +8444,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="s" s="2">
+      <c r="A288" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B288" t="s" s="2">
+      <c r="B288" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C288" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D288" t="s" s="2">
+      <c r="C288" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D288" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E288" t="s" s="2">
+      <c r="E288" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F288" t="s" s="2">
+      <c r="F288" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G288" t="s" s="2">
+      <c r="G288" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H288" t="s" s="2">
+      <c r="H288" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8478,28 +8490,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="B290" t="s" s="2">
+      <c r="B290" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C290" t="s" s="2">
+      <c r="C290" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D290" t="s" s="2">
+      <c r="D290" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E290" t="s" s="2">
+      <c r="E290" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F290" t="s" s="2">
+      <c r="F290" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G290" t="s" s="2">
+      <c r="G290" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H290" t="s" s="2">
+      <c r="H290" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I290" t="s" s="2">
+      <c r="I290" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8558,10 +8570,10 @@
       <c r="I292">
         <f>((C292-C291)^2+(D292- D291)^2)^.5</f>
       </c>
-      <c r="J292" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K292" s="2" t="s">
+      <c r="J292" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K292" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L292" t="n">
@@ -8605,28 +8617,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="s" s="2">
+      <c r="A294" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B294" t="s" s="2">
+      <c r="B294" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C294" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D294" t="s" s="2">
+      <c r="C294" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D294" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E294" t="s" s="2">
+      <c r="E294" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F294" t="s" s="2">
+      <c r="F294" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G294" t="s" s="2">
+      <c r="G294" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H294" t="s" s="2">
+      <c r="H294" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8651,28 +8663,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="B296" t="s" s="2">
+      <c r="B296" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C296" t="s" s="2">
+      <c r="C296" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D296" t="s" s="2">
+      <c r="D296" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E296" t="s" s="2">
+      <c r="E296" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F296" t="s" s="2">
+      <c r="F296" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G296" t="s" s="2">
+      <c r="G296" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H296" t="s" s="2">
+      <c r="H296" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I296" t="s" s="2">
+      <c r="I296" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8731,10 +8743,10 @@
       <c r="I298">
         <f>((C298-C297)^2+(D298- D297)^2)^.5</f>
       </c>
-      <c r="J298" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K298" s="2" t="s">
+      <c r="J298" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K298" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L298" t="n">
@@ -8778,28 +8790,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="s" s="2">
+      <c r="A300" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B300" t="s" s="2">
+      <c r="B300" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C300" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D300" t="s" s="2">
+      <c r="C300" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E300" t="s" s="2">
+      <c r="E300" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F300" t="s" s="2">
+      <c r="F300" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G300" t="s" s="2">
+      <c r="G300" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H300" t="s" s="2">
+      <c r="H300" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8824,28 +8836,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="B302" t="s" s="2">
+      <c r="B302" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C302" t="s" s="2">
+      <c r="C302" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D302" t="s" s="2">
+      <c r="D302" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E302" t="s" s="2">
+      <c r="E302" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F302" t="s" s="2">
+      <c r="F302" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G302" t="s" s="2">
+      <c r="G302" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H302" t="s" s="2">
+      <c r="H302" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I302" t="s" s="2">
+      <c r="I302" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8904,10 +8916,10 @@
       <c r="I304">
         <f>((C304-C303)^2+(D304- D303)^2)^.5</f>
       </c>
-      <c r="J304" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K304" s="2" t="s">
+      <c r="J304" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K304" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L304" t="n">
@@ -8951,28 +8963,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="s" s="2">
+      <c r="A306" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B306" t="s" s="2">
+      <c r="B306" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C306" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D306" t="s" s="2">
+      <c r="C306" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D306" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E306" t="s" s="2">
+      <c r="E306" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F306" t="s" s="2">
+      <c r="F306" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G306" t="s" s="2">
+      <c r="G306" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H306" t="s" s="2">
+      <c r="H306" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8997,28 +9009,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="B308" t="s" s="2">
+      <c r="B308" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C308" t="s" s="2">
+      <c r="C308" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D308" t="s" s="2">
+      <c r="D308" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E308" t="s" s="2">
+      <c r="E308" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F308" t="s" s="2">
+      <c r="F308" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G308" t="s" s="2">
+      <c r="G308" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H308" t="s" s="2">
+      <c r="H308" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I308" t="s" s="2">
+      <c r="I308" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9106,10 +9118,10 @@
       <c r="I311">
         <f>((C311-C310)^2+(D311- D310)^2)^.5</f>
       </c>
-      <c r="J311" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K311" s="2" t="s">
+      <c r="J311" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K311" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L311" t="n">
@@ -9153,28 +9165,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="s" s="2">
+      <c r="A313" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B313" t="s" s="2">
+      <c r="B313" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C313" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D313" t="s" s="2">
+      <c r="C313" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D313" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E313" t="s" s="2">
+      <c r="E313" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F313" t="s" s="2">
+      <c r="F313" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G313" t="s" s="2">
+      <c r="G313" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H313" t="s" s="2">
+      <c r="H313" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9199,28 +9211,28 @@
       </c>
     </row>
     <row r="315">
-      <c r="B315" t="s" s="2">
+      <c r="B315" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C315" t="s" s="2">
+      <c r="C315" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D315" t="s" s="2">
+      <c r="D315" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E315" t="s" s="2">
+      <c r="E315" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F315" t="s" s="2">
+      <c r="F315" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G315" t="s" s="2">
+      <c r="G315" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H315" t="s" s="2">
+      <c r="H315" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I315" t="s" s="2">
+      <c r="I315" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9279,10 +9291,10 @@
       <c r="I317">
         <f>((C317-C316)^2+(D317- D316)^2)^.5</f>
       </c>
-      <c r="J317" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K317" s="2" t="s">
+      <c r="J317" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K317" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L317" t="n">
@@ -9326,28 +9338,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="s" s="2">
+      <c r="A319" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B319" t="s" s="2">
+      <c r="B319" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C319" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D319" t="s" s="2">
+      <c r="C319" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D319" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E319" t="s" s="2">
+      <c r="E319" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F319" t="s" s="2">
+      <c r="F319" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G319" t="s" s="2">
+      <c r="G319" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H319" t="s" s="2">
+      <c r="H319" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9372,28 +9384,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="B321" t="s" s="2">
+      <c r="B321" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C321" t="s" s="2">
+      <c r="C321" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D321" t="s" s="2">
+      <c r="D321" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E321" t="s" s="2">
+      <c r="E321" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F321" t="s" s="2">
+      <c r="F321" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G321" t="s" s="2">
+      <c r="G321" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H321" t="s" s="2">
+      <c r="H321" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I321" t="s" s="2">
+      <c r="I321" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9452,10 +9464,10 @@
       <c r="I323">
         <f>((C323-C322)^2+(D323- D322)^2)^.5</f>
       </c>
-      <c r="J323" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K323" s="2" t="s">
+      <c r="J323" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K323" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L323" t="n">
@@ -9499,28 +9511,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="s" s="2">
+      <c r="A325" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B325" t="s" s="2">
+      <c r="B325" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C325" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D325" t="s" s="2">
+      <c r="C325" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D325" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E325" t="s" s="2">
+      <c r="E325" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F325" t="s" s="2">
+      <c r="F325" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G325" t="s" s="2">
+      <c r="G325" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H325" t="s" s="2">
+      <c r="H325" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9545,28 +9557,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="B327" t="s" s="2">
+      <c r="B327" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C327" t="s" s="2">
+      <c r="C327" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D327" t="s" s="2">
+      <c r="D327" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E327" t="s" s="2">
+      <c r="E327" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F327" t="s" s="2">
+      <c r="F327" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G327" t="s" s="2">
+      <c r="G327" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H327" t="s" s="2">
+      <c r="H327" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I327" t="s" s="2">
+      <c r="I327" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9625,10 +9637,10 @@
       <c r="I329">
         <f>((C329-C328)^2+(D329- D328)^2)^.5</f>
       </c>
-      <c r="J329" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K329" s="2" t="s">
+      <c r="J329" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K329" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L329" t="n">
@@ -9672,28 +9684,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="s" s="2">
+      <c r="A331" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B331" t="s" s="2">
+      <c r="B331" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C331" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D331" t="s" s="2">
+      <c r="C331" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D331" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E331" t="s" s="2">
+      <c r="E331" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F331" t="s" s="2">
+      <c r="F331" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G331" t="s" s="2">
+      <c r="G331" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H331" t="s" s="2">
+      <c r="H331" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9718,28 +9730,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="B333" t="s" s="2">
+      <c r="B333" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C333" t="s" s="2">
+      <c r="C333" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D333" t="s" s="2">
+      <c r="D333" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E333" t="s" s="2">
+      <c r="E333" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F333" t="s" s="2">
+      <c r="F333" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G333" t="s" s="2">
+      <c r="G333" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H333" t="s" s="2">
+      <c r="H333" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I333" t="s" s="2">
+      <c r="I333" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9798,10 +9810,10 @@
       <c r="I335">
         <f>((C335-C334)^2+(D335- D334)^2)^.5</f>
       </c>
-      <c r="J335" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K335" s="2" t="s">
+      <c r="J335" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K335" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L335" t="n">
@@ -9845,28 +9857,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="s" s="2">
+      <c r="A337" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B337" t="s" s="2">
+      <c r="B337" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C337" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D337" t="s" s="2">
+      <c r="C337" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D337" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E337" t="s" s="2">
+      <c r="E337" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F337" t="s" s="2">
+      <c r="F337" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G337" t="s" s="2">
+      <c r="G337" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H337" t="s" s="2">
+      <c r="H337" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9891,28 +9903,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="B339" t="s" s="2">
+      <c r="B339" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C339" t="s" s="2">
+      <c r="C339" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D339" t="s" s="2">
+      <c r="D339" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E339" t="s" s="2">
+      <c r="E339" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F339" t="s" s="2">
+      <c r="F339" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G339" t="s" s="2">
+      <c r="G339" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H339" t="s" s="2">
+      <c r="H339" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I339" t="s" s="2">
+      <c r="I339" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9971,10 +9983,10 @@
       <c r="I341">
         <f>((C341-C340)^2+(D341- D340)^2)^.5</f>
       </c>
-      <c r="J341" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K341" s="2" t="s">
+      <c r="J341" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K341" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L341" t="n">
